--- a/viteConfig/assets/language.xlsx
+++ b/viteConfig/assets/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="277">
   <si>
     <t>字段</t>
   </si>
@@ -1158,6 +1158,18 @@
     <t>error.page403</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>账户设置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account Settings</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.pureAccountSettings</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1566,11 +1578,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1059"/>
+  <dimension ref="A1:AA1060"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D90" sqref="D90"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -4097,54 +4109,51 @@
       <c r="AA72" s="5"/>
     </row>
     <row r="73" spans="1:27" ht="12.75">
-      <c r="A73" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E73" s="5"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5"/>
-      <c r="K73" s="5"/>
-      <c r="L73" s="5"/>
-      <c r="M73" s="5"/>
-      <c r="N73" s="5"/>
-      <c r="O73" s="5"/>
-      <c r="P73" s="5"/>
-      <c r="Q73" s="5"/>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5"/>
-      <c r="V73" s="5"/>
-      <c r="W73" s="5"/>
-      <c r="X73" s="5"/>
-      <c r="Y73" s="5"/>
-      <c r="Z73" s="5"/>
-      <c r="AA73" s="5"/>
+      <c r="A73" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
+      <c r="W73" s="9"/>
+      <c r="X73" s="9"/>
+      <c r="Y73" s="9"/>
+      <c r="Z73" s="9"/>
+      <c r="AA73" s="9"/>
     </row>
     <row r="74" spans="1:27" ht="12.75">
       <c r="A74" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B74" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="9"/>
@@ -4172,16 +4181,16 @@
     </row>
     <row r="75" spans="1:27" ht="12.75">
       <c r="A75" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B75" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D75" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="9"/>
@@ -4209,16 +4218,16 @@
     </row>
     <row r="76" spans="1:27" ht="12.75">
       <c r="A76" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B76" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D76" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="9"/>
@@ -4246,16 +4255,16 @@
     </row>
     <row r="77" spans="1:27" ht="12.75">
       <c r="A77" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B77" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="9"/>
@@ -4283,16 +4292,16 @@
     </row>
     <row r="78" spans="1:27" ht="12.75">
       <c r="A78" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B78" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C78" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="9"/>
@@ -4320,16 +4329,16 @@
     </row>
     <row r="79" spans="1:27" ht="12.75">
       <c r="A79" s="22" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B79" s="21" t="s">
         <v>216</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="9"/>
@@ -4357,16 +4366,16 @@
     </row>
     <row r="80" spans="1:27" ht="12.75">
       <c r="A80" s="22" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>49</v>
+        <v>216</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="9"/>
@@ -4394,16 +4403,16 @@
     </row>
     <row r="81" spans="1:27" ht="12.75">
       <c r="A81" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B81" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="9"/>
@@ -4431,16 +4440,16 @@
     </row>
     <row r="82" spans="1:27" ht="12.75">
       <c r="A82" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B82" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>49</v>
+        <v>247</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="9"/>
@@ -4468,16 +4477,16 @@
     </row>
     <row r="83" spans="1:27" ht="12.75">
       <c r="A83" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B83" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="9"/>
@@ -4505,16 +4514,16 @@
     </row>
     <row r="84" spans="1:27" ht="12.75">
       <c r="A84" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B84" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="9"/>
@@ -4542,16 +4551,16 @@
     </row>
     <row r="85" spans="1:27" ht="12.75">
       <c r="A85" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="9"/>
@@ -4579,16 +4588,16 @@
     </row>
     <row r="86" spans="1:27" ht="12.75">
       <c r="A86" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="9"/>
@@ -4614,18 +4623,18 @@
       <c r="Z86" s="5"/>
       <c r="AA86" s="5"/>
     </row>
-    <row r="87" spans="1:27" ht="25.5">
+    <row r="87" spans="1:27" ht="12.75">
       <c r="A87" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="9"/>
@@ -4651,18 +4660,18 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" spans="1:27" ht="12.75">
-      <c r="A88" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B88" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C88" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>262</v>
+    <row r="88" spans="1:27" ht="25.5">
+      <c r="A88" s="22" t="s">
+        <v>245</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D88" s="22" t="s">
+        <v>259</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="9"/>
@@ -4688,18 +4697,18 @@
       <c r="Z88" s="5"/>
       <c r="AA88" s="5"/>
     </row>
-    <row r="89" spans="1:27" ht="25.5">
+    <row r="89" spans="1:27" ht="12.75">
       <c r="A89" s="14" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B89" s="20" t="s">
         <v>263</v>
       </c>
-      <c r="C89" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="D89" s="22" t="s">
-        <v>266</v>
+      <c r="C89" s="20" t="s">
+        <v>261</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>262</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="9"/>
@@ -4725,18 +4734,18 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" spans="1:27" ht="12.75">
+    <row r="90" spans="1:27" ht="25.5">
       <c r="A90" s="14" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B90" s="20" t="s">
         <v>263</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="9"/>
@@ -4764,16 +4773,16 @@
     </row>
     <row r="91" spans="1:27" ht="12.75">
       <c r="A91" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B91" s="20" t="s">
         <v>263</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="9"/>
@@ -4800,10 +4809,18 @@
       <c r="AA91" s="5"/>
     </row>
     <row r="92" spans="1:27" ht="12.75">
-      <c r="A92" s="22"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="22"/>
+      <c r="A92" s="14" t="s">
+        <v>272</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>263</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>270</v>
+      </c>
       <c r="E92" s="5"/>
       <c r="F92" s="9"/>
       <c r="G92" s="9"/>
@@ -4976,9 +4993,12 @@
     <row r="98" spans="1:27" ht="12.75">
       <c r="A98" s="22"/>
       <c r="B98" s="21"/>
-      <c r="C98" s="20"/>
-      <c r="D98" s="14"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="22"/>
       <c r="E98" s="5"/>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="5"/>
       <c r="J98" s="5"/>
       <c r="K98" s="5"/>
@@ -5159,7 +5179,7 @@
       <c r="A105" s="22"/>
       <c r="B105" s="21"/>
       <c r="C105" s="20"/>
-      <c r="D105" s="6"/>
+      <c r="D105" s="14"/>
       <c r="E105" s="5"/>
       <c r="I105" s="5"/>
       <c r="J105" s="5"/>
@@ -5210,7 +5230,7 @@
     <row r="107" spans="1:27" ht="12.75">
       <c r="A107" s="22"/>
       <c r="B107" s="21"/>
-      <c r="C107" s="6"/>
+      <c r="C107" s="20"/>
       <c r="D107" s="6"/>
       <c r="E107" s="5"/>
       <c r="I107" s="5"/>
@@ -5236,7 +5256,7 @@
     <row r="108" spans="1:27" ht="12.75">
       <c r="A108" s="22"/>
       <c r="B108" s="21"/>
-      <c r="C108" s="20"/>
+      <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="5"/>
       <c r="I108" s="5"/>
@@ -5262,7 +5282,7 @@
     <row r="109" spans="1:27" ht="12.75">
       <c r="A109" s="22"/>
       <c r="B109" s="21"/>
-      <c r="C109" s="6"/>
+      <c r="C109" s="20"/>
       <c r="D109" s="6"/>
       <c r="E109" s="5"/>
       <c r="I109" s="5"/>
@@ -5288,7 +5308,7 @@
     <row r="110" spans="1:27" ht="12.75">
       <c r="A110" s="22"/>
       <c r="B110" s="21"/>
-      <c r="C110" s="20"/>
+      <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="5"/>
       <c r="I110" s="5"/>
@@ -5496,7 +5516,7 @@
     <row r="118" spans="1:27" ht="12.75">
       <c r="A118" s="22"/>
       <c r="B118" s="21"/>
-      <c r="C118" s="6"/>
+      <c r="C118" s="20"/>
       <c r="D118" s="6"/>
       <c r="E118" s="5"/>
       <c r="I118" s="5"/>
@@ -5522,7 +5542,7 @@
     <row r="119" spans="1:27" ht="12.75">
       <c r="A119" s="22"/>
       <c r="B119" s="21"/>
-      <c r="C119" s="20"/>
+      <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="5"/>
       <c r="I119" s="5"/>
@@ -5548,7 +5568,7 @@
     <row r="120" spans="1:27" ht="12.75">
       <c r="A120" s="22"/>
       <c r="B120" s="21"/>
-      <c r="C120" s="6"/>
+      <c r="C120" s="20"/>
       <c r="D120" s="6"/>
       <c r="E120" s="5"/>
       <c r="I120" s="5"/>
@@ -5574,7 +5594,7 @@
     <row r="121" spans="1:27" ht="12.75">
       <c r="A121" s="22"/>
       <c r="B121" s="21"/>
-      <c r="C121" s="20"/>
+      <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5"/>
       <c r="I121" s="5"/>
@@ -5650,9 +5670,9 @@
       <c r="AA123" s="5"/>
     </row>
     <row r="124" spans="1:27" ht="12.75">
-      <c r="A124" s="9"/>
-      <c r="B124" s="9"/>
-      <c r="C124" s="6"/>
+      <c r="A124" s="22"/>
+      <c r="B124" s="21"/>
+      <c r="C124" s="20"/>
       <c r="D124" s="6"/>
       <c r="E124" s="5"/>
       <c r="I124" s="5"/>
@@ -5887,7 +5907,7 @@
       <c r="A133" s="9"/>
       <c r="B133" s="9"/>
       <c r="C133" s="6"/>
-      <c r="D133" s="3"/>
+      <c r="D133" s="6"/>
       <c r="E133" s="5"/>
       <c r="I133" s="5"/>
       <c r="J133" s="5"/>
@@ -5913,7 +5933,7 @@
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="6"/>
+      <c r="D134" s="3"/>
       <c r="E134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -6071,9 +6091,6 @@
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
-      <c r="G140" s="5"/>
-      <c r="H140" s="5"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
@@ -6271,7 +6288,7 @@
     <row r="147" spans="1:27" ht="12.75">
       <c r="A147" s="9"/>
       <c r="B147" s="9"/>
-      <c r="C147" s="3"/>
+      <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
@@ -6677,7 +6694,7 @@
     <row r="161" spans="1:27" ht="12.75">
       <c r="A161" s="9"/>
       <c r="B161" s="9"/>
-      <c r="C161" s="6"/>
+      <c r="C161" s="3"/>
       <c r="D161" s="6"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -6706,7 +6723,7 @@
     <row r="162" spans="1:27" ht="12.75">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="3"/>
+      <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -6764,7 +6781,7 @@
     <row r="164" spans="1:27" ht="12.75">
       <c r="A164" s="9"/>
       <c r="B164" s="9"/>
-      <c r="C164" s="6"/>
+      <c r="C164" s="3"/>
       <c r="D164" s="6"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -7750,7 +7767,7 @@
     <row r="198" spans="1:27" ht="12.75">
       <c r="A198" s="9"/>
       <c r="B198" s="9"/>
-      <c r="C198" s="3"/>
+      <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
@@ -7837,7 +7854,7 @@
     <row r="201" spans="1:27" ht="12.75">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
-      <c r="C201" s="6"/>
+      <c r="C201" s="3"/>
       <c r="D201" s="6"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -8099,7 +8116,7 @@
       <c r="A210" s="9"/>
       <c r="B210" s="9"/>
       <c r="C210" s="6"/>
-      <c r="D210" s="3"/>
+      <c r="D210" s="6"/>
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
       <c r="G210" s="5"/>
@@ -8127,8 +8144,8 @@
     <row r="211" spans="1:27" ht="12.75">
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="13"/>
+      <c r="C211" s="6"/>
+      <c r="D211" s="3"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -8154,10 +8171,10 @@
       <c r="AA211" s="5"/>
     </row>
     <row r="212" spans="1:27" ht="12.75">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="14"/>
+      <c r="A212" s="9"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="13"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -8185,8 +8202,8 @@
     <row r="213" spans="1:27" ht="12.75">
       <c r="A213" s="10"/>
       <c r="B213" s="10"/>
-      <c r="C213" s="6"/>
-      <c r="D213" s="13"/>
+      <c r="C213" s="9"/>
+      <c r="D213" s="14"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -8215,7 +8232,7 @@
       <c r="A214" s="10"/>
       <c r="B214" s="10"/>
       <c r="C214" s="6"/>
-      <c r="D214" s="15"/>
+      <c r="D214" s="13"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
@@ -8241,10 +8258,10 @@
       <c r="AA214" s="5"/>
     </row>
     <row r="215" spans="1:27" ht="12.75">
-      <c r="A215" s="9"/>
-      <c r="B215" s="9"/>
+      <c r="A215" s="10"/>
+      <c r="B215" s="10"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="11"/>
+      <c r="D215" s="15"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -8270,10 +8287,10 @@
       <c r="AA215" s="5"/>
     </row>
     <row r="216" spans="1:27" ht="12.75">
-      <c r="A216" s="10"/>
-      <c r="B216" s="10"/>
+      <c r="A216" s="9"/>
+      <c r="B216" s="9"/>
       <c r="C216" s="6"/>
-      <c r="D216" s="14"/>
+      <c r="D216" s="11"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -8302,7 +8319,7 @@
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
       <c r="C217" s="6"/>
-      <c r="D217" s="13"/>
+      <c r="D217" s="14"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -8331,7 +8348,7 @@
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
       <c r="C218" s="6"/>
-      <c r="D218" s="15"/>
+      <c r="D218" s="13"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
@@ -8357,8 +8374,8 @@
       <c r="AA218" s="5"/>
     </row>
     <row r="219" spans="1:27" ht="12.75">
-      <c r="A219" s="9"/>
-      <c r="B219" s="9"/>
+      <c r="A219" s="10"/>
+      <c r="B219" s="10"/>
       <c r="C219" s="6"/>
       <c r="D219" s="15"/>
       <c r="E219" s="5"/>
@@ -8386,10 +8403,10 @@
       <c r="AA219" s="5"/>
     </row>
     <row r="220" spans="1:27" ht="12.75">
-      <c r="A220" s="10"/>
-      <c r="B220" s="10"/>
+      <c r="A220" s="9"/>
+      <c r="B220" s="9"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="13"/>
+      <c r="D220" s="15"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -8418,7 +8435,7 @@
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="6"/>
-      <c r="D221" s="15"/>
+      <c r="D221" s="13"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
@@ -8444,10 +8461,10 @@
       <c r="AA221" s="5"/>
     </row>
     <row r="222" spans="1:27" ht="12.75">
-      <c r="A222" s="9"/>
-      <c r="B222" s="9"/>
+      <c r="A222" s="10"/>
+      <c r="B222" s="10"/>
       <c r="C222" s="6"/>
-      <c r="D222" s="13"/>
+      <c r="D222" s="15"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
@@ -8473,9 +8490,9 @@
       <c r="AA222" s="5"/>
     </row>
     <row r="223" spans="1:27" ht="12.75">
-      <c r="A223" s="10"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="3"/>
+      <c r="A223" s="9"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="6"/>
       <c r="D223" s="13"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
@@ -8504,7 +8521,7 @@
     <row r="224" spans="1:27" ht="12.75">
       <c r="A224" s="10"/>
       <c r="B224" s="10"/>
-      <c r="C224" s="6"/>
+      <c r="C224" s="3"/>
       <c r="D224" s="13"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
@@ -8533,8 +8550,8 @@
     <row r="225" spans="1:27" ht="12.75">
       <c r="A225" s="10"/>
       <c r="B225" s="10"/>
-      <c r="C225" s="3"/>
-      <c r="D225" s="15"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="13"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8560,10 +8577,10 @@
       <c r="AA225" s="5"/>
     </row>
     <row r="226" spans="1:27" ht="12.75">
-      <c r="A226" s="9"/>
-      <c r="B226" s="9"/>
-      <c r="C226" s="6"/>
-      <c r="D226" s="13"/>
+      <c r="A226" s="10"/>
+      <c r="B226" s="10"/>
+      <c r="C226" s="3"/>
+      <c r="D226" s="15"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8591,8 +8608,8 @@
     <row r="227" spans="1:27" ht="12.75">
       <c r="A227" s="9"/>
       <c r="B227" s="9"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="13"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8852,7 +8869,7 @@
     <row r="236" spans="1:27" ht="12.75">
       <c r="A236" s="9"/>
       <c r="B236" s="9"/>
-      <c r="C236" s="12"/>
+      <c r="C236" s="9"/>
       <c r="D236" s="9"/>
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
@@ -8881,7 +8898,7 @@
     <row r="237" spans="1:27" ht="12.75">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
+      <c r="C237" s="12"/>
       <c r="D237" s="9"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -8968,7 +8985,7 @@
     <row r="240" spans="1:27" ht="12.75">
       <c r="A240" s="9"/>
       <c r="B240" s="9"/>
-      <c r="C240" s="10"/>
+      <c r="C240" s="9"/>
       <c r="D240" s="9"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
@@ -8997,7 +9014,7 @@
     <row r="241" spans="1:27" ht="12.75">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
-      <c r="C241" s="12"/>
+      <c r="C241" s="10"/>
       <c r="D241" s="9"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -9026,7 +9043,7 @@
     <row r="242" spans="1:27" ht="12.75">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
+      <c r="C242" s="12"/>
       <c r="D242" s="9"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -9487,62 +9504,62 @@
       <c r="Z257" s="5"/>
       <c r="AA257" s="5"/>
     </row>
-    <row r="258" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A258" s="16"/>
-      <c r="B258" s="17"/>
-      <c r="C258" s="17"/>
-      <c r="D258" s="17"/>
-      <c r="E258" s="17"/>
-      <c r="F258" s="18"/>
-      <c r="G258" s="19"/>
-      <c r="H258" s="19"/>
-      <c r="I258" s="19"/>
-      <c r="J258" s="19"/>
-      <c r="K258" s="19"/>
-      <c r="L258" s="19"/>
-      <c r="M258" s="19"/>
-      <c r="N258" s="19"/>
-      <c r="O258" s="19"/>
-      <c r="P258" s="19"/>
-      <c r="Q258" s="19"/>
-      <c r="R258" s="19"/>
-      <c r="S258" s="19"/>
-      <c r="T258" s="19"/>
-      <c r="U258" s="19"/>
-      <c r="V258" s="19"/>
-      <c r="W258" s="19"/>
-      <c r="X258" s="19"/>
-      <c r="Y258" s="19"/>
-      <c r="Z258" s="19"/>
+    <row r="258" spans="1:27" ht="12.75">
+      <c r="A258" s="9"/>
+      <c r="B258" s="9"/>
+      <c r="C258" s="9"/>
+      <c r="D258" s="9"/>
+      <c r="E258" s="5"/>
+      <c r="F258" s="5"/>
+      <c r="G258" s="5"/>
+      <c r="H258" s="5"/>
+      <c r="I258" s="5"/>
+      <c r="J258" s="5"/>
+      <c r="K258" s="5"/>
+      <c r="L258" s="5"/>
+      <c r="M258" s="5"/>
+      <c r="N258" s="5"/>
+      <c r="O258" s="5"/>
+      <c r="P258" s="5"/>
+      <c r="Q258" s="5"/>
+      <c r="R258" s="5"/>
+      <c r="S258" s="5"/>
+      <c r="T258" s="5"/>
+      <c r="U258" s="5"/>
+      <c r="V258" s="5"/>
+      <c r="W258" s="5"/>
+      <c r="X258" s="5"/>
+      <c r="Y258" s="5"/>
+      <c r="Z258" s="5"/>
       <c r="AA258" s="5"/>
     </row>
-    <row r="259" spans="1:27" ht="12.75">
-      <c r="A259" s="5"/>
-      <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-      <c r="E259" s="5"/>
-      <c r="F259" s="5"/>
-      <c r="G259" s="5"/>
-      <c r="H259" s="5"/>
-      <c r="I259" s="5"/>
-      <c r="J259" s="5"/>
-      <c r="K259" s="5"/>
-      <c r="L259" s="5"/>
-      <c r="M259" s="5"/>
-      <c r="N259" s="5"/>
-      <c r="O259" s="5"/>
-      <c r="P259" s="5"/>
-      <c r="Q259" s="5"/>
-      <c r="R259" s="5"/>
-      <c r="S259" s="5"/>
-      <c r="T259" s="5"/>
-      <c r="U259" s="5"/>
-      <c r="V259" s="5"/>
-      <c r="W259" s="5"/>
-      <c r="X259" s="5"/>
-      <c r="Y259" s="5"/>
-      <c r="Z259" s="5"/>
+    <row r="259" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A259" s="16"/>
+      <c r="B259" s="17"/>
+      <c r="C259" s="17"/>
+      <c r="D259" s="17"/>
+      <c r="E259" s="17"/>
+      <c r="F259" s="18"/>
+      <c r="G259" s="19"/>
+      <c r="H259" s="19"/>
+      <c r="I259" s="19"/>
+      <c r="J259" s="19"/>
+      <c r="K259" s="19"/>
+      <c r="L259" s="19"/>
+      <c r="M259" s="19"/>
+      <c r="N259" s="19"/>
+      <c r="O259" s="19"/>
+      <c r="P259" s="19"/>
+      <c r="Q259" s="19"/>
+      <c r="R259" s="19"/>
+      <c r="S259" s="19"/>
+      <c r="T259" s="19"/>
+      <c r="U259" s="19"/>
+      <c r="V259" s="19"/>
+      <c r="W259" s="19"/>
+      <c r="X259" s="19"/>
+      <c r="Y259" s="19"/>
+      <c r="Z259" s="19"/>
       <c r="AA259" s="5"/>
     </row>
     <row r="260" spans="1:27" ht="12.75">
@@ -32745,6 +32762,35 @@
       <c r="Z1059" s="5"/>
       <c r="AA1059" s="5"/>
     </row>
+    <row r="1060" spans="1:27" ht="12.75">
+      <c r="A1060" s="5"/>
+      <c r="B1060" s="5"/>
+      <c r="C1060" s="5"/>
+      <c r="D1060" s="5"/>
+      <c r="E1060" s="5"/>
+      <c r="F1060" s="5"/>
+      <c r="G1060" s="5"/>
+      <c r="H1060" s="5"/>
+      <c r="I1060" s="5"/>
+      <c r="J1060" s="5"/>
+      <c r="K1060" s="5"/>
+      <c r="L1060" s="5"/>
+      <c r="M1060" s="5"/>
+      <c r="N1060" s="5"/>
+      <c r="O1060" s="5"/>
+      <c r="P1060" s="5"/>
+      <c r="Q1060" s="5"/>
+      <c r="R1060" s="5"/>
+      <c r="S1060" s="5"/>
+      <c r="T1060" s="5"/>
+      <c r="U1060" s="5"/>
+      <c r="V1060" s="5"/>
+      <c r="W1060" s="5"/>
+      <c r="X1060" s="5"/>
+      <c r="Y1060" s="5"/>
+      <c r="Z1060" s="5"/>
+      <c r="AA1060" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/viteConfig/assets/language.xlsx
+++ b/viteConfig/assets/language.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero\Desktop\vue-my\vite-admin\viteConfig\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zero\Desktop\vue3-admin\viteConfig\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="290">
   <si>
     <t>字段</t>
   </si>
@@ -844,26 +844,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>menus.purePermission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>menus.purePermissionPage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>menus.purePermissionButton</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>menus.purePermissionButtonRouter</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>menus.purePermissionButtonLogin</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>首页</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -876,26 +856,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>权限管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面权限</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>按钮权限</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由返回按钮权限</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录接口返回按钮权限</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Home</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -905,26 +865,6 @@
   </si>
   <si>
     <t>Abnormal Page</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Permission Manage</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Page Permission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Button Permission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Route return button permission</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login interface return button permission</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1159,15 +1099,127 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>账户设置</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Account Settings</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>menus.pureAccountSettings</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>水印模式</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Watermark Mode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel.pureWatermarkMode</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>国际化版本</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>International version</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>welcome.Internationalversion</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>菜单管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.MenuManagement</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色管理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Role Management</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Management</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Template</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>System Management</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.SystemManagement</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu Management</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.RoleManagement</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.UserManagement</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.Template</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.Table</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户设置</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关文档</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Related Documents</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>menus.RelatedDocuments</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1578,11 +1630,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1060"/>
+  <dimension ref="A1:AA1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3135,7 +3187,7 @@
         <v>86</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>139</v>
@@ -3518,53 +3570,53 @@
     </row>
     <row r="57" spans="1:27" ht="12.75">
       <c r="A57" s="22" t="s">
-        <v>116</v>
+        <v>265</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>183</v>
+        <v>263</v>
       </c>
       <c r="D57" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E57" s="5"/>
+        <v>264</v>
+      </c>
+      <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5"/>
-      <c r="K57" s="5"/>
-      <c r="L57" s="5"/>
-      <c r="M57" s="5"/>
-      <c r="N57" s="5"/>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5"/>
-      <c r="V57" s="5"/>
-      <c r="W57" s="5"/>
-      <c r="X57" s="5"/>
-      <c r="Y57" s="5"/>
-      <c r="Z57" s="5"/>
-      <c r="AA57" s="5"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9"/>
+      <c r="AA57" s="9"/>
     </row>
     <row r="58" spans="1:27" ht="12.75">
       <c r="A58" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="9"/>
@@ -3592,16 +3644,16 @@
     </row>
     <row r="59" spans="1:27" ht="12.75">
       <c r="A59" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C59" s="21" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="9"/>
@@ -3629,16 +3681,16 @@
     </row>
     <row r="60" spans="1:27" ht="12.75">
       <c r="A60" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B60" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="9"/>
@@ -3666,16 +3718,16 @@
     </row>
     <row r="61" spans="1:27" ht="12.75">
       <c r="A61" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="9"/>
@@ -3703,16 +3755,16 @@
     </row>
     <row r="62" spans="1:27" ht="12.75">
       <c r="A62" s="22" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="B62" s="20" t="s">
-        <v>188</v>
+        <v>86</v>
       </c>
       <c r="C62" s="21" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="D62" s="22" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="E62" s="5"/>
       <c r="F62" s="9"/>
@@ -3740,16 +3792,16 @@
     </row>
     <row r="63" spans="1:27" ht="12.75">
       <c r="A63" s="22" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B63" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D63" s="22" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="9"/>
@@ -3777,16 +3829,16 @@
     </row>
     <row r="64" spans="1:27" ht="12.75">
       <c r="A64" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B64" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C64" s="21" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="9"/>
@@ -3814,16 +3866,16 @@
     </row>
     <row r="65" spans="1:27" ht="12.75">
       <c r="A65" s="22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B65" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C65" s="21">
-        <v>404</v>
-      </c>
-      <c r="D65" s="21">
-        <v>404</v>
+      <c r="C65" s="21" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>200</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="9"/>
@@ -3851,16 +3903,16 @@
     </row>
     <row r="66" spans="1:27" ht="12.75">
       <c r="A66" s="22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C66" s="21">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D66" s="21">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="9"/>
@@ -3888,16 +3940,16 @@
     </row>
     <row r="67" spans="1:27" ht="12.75">
       <c r="A67" s="22" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C67" s="21">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="D67" s="21">
-        <v>500</v>
+        <v>403</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="9"/>
@@ -3925,16 +3977,16 @@
     </row>
     <row r="68" spans="1:27" ht="12.75">
       <c r="A68" s="22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B68" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C68" s="21" t="s">
-        <v>203</v>
-      </c>
-      <c r="D68" s="22" t="s">
-        <v>211</v>
+      <c r="C68" s="21">
+        <v>500</v>
+      </c>
+      <c r="D68" s="21">
+        <v>500</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="9"/>
@@ -3962,16 +4014,16 @@
     </row>
     <row r="69" spans="1:27" ht="12.75">
       <c r="A69" s="22" t="s">
-        <v>196</v>
+        <v>280</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>212</v>
+        <v>279</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="9"/>
@@ -3999,16 +4051,16 @@
     </row>
     <row r="70" spans="1:27" ht="12.75">
       <c r="A70" s="22" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>205</v>
+        <v>270</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>213</v>
+        <v>281</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="9"/>
@@ -4036,16 +4088,16 @@
     </row>
     <row r="71" spans="1:27" ht="12.75">
       <c r="A71" s="22" t="s">
-        <v>198</v>
+        <v>282</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>206</v>
+        <v>272</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>214</v>
+        <v>273</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="9"/>
@@ -4073,16 +4125,16 @@
     </row>
     <row r="72" spans="1:27" ht="12.75">
       <c r="A72" s="22" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>207</v>
+        <v>261</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>215</v>
+        <v>274</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="9"/>
@@ -4109,19 +4161,22 @@
       <c r="AA72" s="5"/>
     </row>
     <row r="73" spans="1:27" ht="12.75">
-      <c r="A73" s="14" t="s">
-        <v>276</v>
+      <c r="A73" s="22" t="s">
+        <v>284</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D73" s="14" t="s">
+      <c r="C73" s="21" t="s">
         <v>275</v>
       </c>
+      <c r="D73" s="22" t="s">
+        <v>276</v>
+      </c>
       <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
       <c r="K73" s="9"/>
@@ -4144,164 +4199,158 @@
     </row>
     <row r="74" spans="1:27" ht="12.75">
       <c r="A74" s="22" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>216</v>
+        <v>285</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="C74" s="21" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="E74" s="5"/>
+        <v>278</v>
+      </c>
+      <c r="E74" s="9"/>
       <c r="F74" s="9"/>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
-      <c r="I74" s="5"/>
-      <c r="J74" s="5"/>
-      <c r="K74" s="5"/>
-      <c r="L74" s="5"/>
-      <c r="M74" s="5"/>
-      <c r="N74" s="5"/>
-      <c r="O74" s="5"/>
-      <c r="P74" s="5"/>
-      <c r="Q74" s="5"/>
-      <c r="R74" s="5"/>
-      <c r="S74" s="5"/>
-      <c r="T74" s="5"/>
-      <c r="U74" s="5"/>
-      <c r="V74" s="5"/>
-      <c r="W74" s="5"/>
-      <c r="X74" s="5"/>
-      <c r="Y74" s="5"/>
-      <c r="Z74" s="5"/>
-      <c r="AA74" s="5"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
+      <c r="W74" s="9"/>
+      <c r="X74" s="9"/>
+      <c r="Y74" s="9"/>
+      <c r="Z74" s="9"/>
+      <c r="AA74" s="9"/>
     </row>
     <row r="75" spans="1:27" ht="12.75">
-      <c r="A75" s="22" t="s">
-        <v>218</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>216</v>
+      <c r="A75" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D75" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="E75" s="5"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
-      <c r="Y75" s="5"/>
-      <c r="Z75" s="5"/>
-      <c r="AA75" s="5"/>
+        <v>286</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
+      <c r="Y75" s="9"/>
+      <c r="Z75" s="9"/>
+      <c r="AA75" s="9"/>
     </row>
     <row r="76" spans="1:27" ht="12.75">
-      <c r="A76" s="22" t="s">
-        <v>219</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>216</v>
+      <c r="A76" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="C76" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="E76" s="5"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+        <v>287</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>288</v>
+      </c>
+      <c r="E76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
+      <c r="W76" s="9"/>
+      <c r="X76" s="9"/>
+      <c r="Y76" s="9"/>
+      <c r="Z76" s="9"/>
+      <c r="AA76" s="9"/>
     </row>
     <row r="77" spans="1:27" ht="12.75">
       <c r="A77" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>216</v>
+        <v>269</v>
+      </c>
+      <c r="B77" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="C77" s="21" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="D77" s="22" t="s">
-        <v>227</v>
-      </c>
-      <c r="E77" s="5"/>
+        <v>268</v>
+      </c>
+      <c r="E77" s="9"/>
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5"/>
-      <c r="K77" s="5"/>
-      <c r="L77" s="5"/>
-      <c r="M77" s="5"/>
-      <c r="N77" s="5"/>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5"/>
-      <c r="V77" s="5"/>
-      <c r="W77" s="5"/>
-      <c r="X77" s="5"/>
-      <c r="Y77" s="5"/>
-      <c r="Z77" s="5"/>
-      <c r="AA77" s="5"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
+      <c r="W77" s="9"/>
+      <c r="X77" s="9"/>
+      <c r="Y77" s="9"/>
+      <c r="Z77" s="9"/>
+      <c r="AA77" s="9"/>
     </row>
     <row r="78" spans="1:27" ht="12.75">
       <c r="A78" s="22" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="B78" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C78" s="21" t="s">
         <v>216</v>
       </c>
-      <c r="C78" s="21" t="s">
-        <v>235</v>
-      </c>
       <c r="D78" s="22" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="9"/>
@@ -4329,16 +4378,16 @@
     </row>
     <row r="79" spans="1:27" ht="12.75">
       <c r="A79" s="22" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B79" s="21" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C79" s="21" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="D79" s="22" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="9"/>
@@ -4366,16 +4415,16 @@
     </row>
     <row r="80" spans="1:27" ht="12.75">
       <c r="A80" s="22" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="B80" s="21" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C80" s="21" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="D80" s="22" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="9"/>
@@ -4403,16 +4452,16 @@
     </row>
     <row r="81" spans="1:27" ht="12.75">
       <c r="A81" s="22" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B81" s="21" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C81" s="21" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="D81" s="22" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="9"/>
@@ -4440,16 +4489,16 @@
     </row>
     <row r="82" spans="1:27" ht="12.75">
       <c r="A82" s="22" t="s">
-        <v>239</v>
+        <v>206</v>
       </c>
       <c r="B82" s="21" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C82" s="21" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="D82" s="22" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="9"/>
@@ -4477,16 +4526,16 @@
     </row>
     <row r="83" spans="1:27" ht="12.75">
       <c r="A83" s="22" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="B83" s="21" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C83" s="21" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="D83" s="22" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="E83" s="5"/>
       <c r="F83" s="9"/>
@@ -4514,16 +4563,16 @@
     </row>
     <row r="84" spans="1:27" ht="12.75">
       <c r="A84" s="22" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="B84" s="21" t="s">
-        <v>49</v>
+        <v>201</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="D84" s="22" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="E84" s="5"/>
       <c r="F84" s="9"/>
@@ -4551,16 +4600,16 @@
     </row>
     <row r="85" spans="1:27" ht="12.75">
       <c r="A85" s="22" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="B85" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="9"/>
@@ -4588,16 +4637,16 @@
     </row>
     <row r="86" spans="1:27" ht="12.75">
       <c r="A86" s="22" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="B86" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="9"/>
@@ -4625,16 +4674,16 @@
     </row>
     <row r="87" spans="1:27" ht="12.75">
       <c r="A87" s="22" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>251</v>
+        <v>49</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="9"/>
@@ -4660,18 +4709,18 @@
       <c r="Z87" s="5"/>
       <c r="AA87" s="5"/>
     </row>
-    <row r="88" spans="1:27" ht="25.5">
+    <row r="88" spans="1:27" ht="12.75">
       <c r="A88" s="22" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="9"/>
@@ -4698,17 +4747,17 @@
       <c r="AA88" s="5"/>
     </row>
     <row r="89" spans="1:27" ht="12.75">
-      <c r="A89" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>263</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>261</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>262</v>
+      <c r="A89" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="22" t="s">
+        <v>241</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="9"/>
@@ -4734,18 +4783,18 @@
       <c r="Z89" s="5"/>
       <c r="AA89" s="5"/>
     </row>
-    <row r="90" spans="1:27" ht="25.5">
-      <c r="A90" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B90" s="20" t="s">
-        <v>263</v>
+    <row r="90" spans="1:27" ht="12.75">
+      <c r="A90" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="9"/>
@@ -4772,17 +4821,17 @@
       <c r="AA90" s="5"/>
     </row>
     <row r="91" spans="1:27" ht="12.75">
-      <c r="A91" s="14" t="s">
-        <v>271</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>263</v>
+      <c r="A91" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="9"/>
@@ -4808,18 +4857,18 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" spans="1:27" ht="12.75">
-      <c r="A92" s="14" t="s">
-        <v>272</v>
-      </c>
-      <c r="B92" s="20" t="s">
-        <v>263</v>
+    <row r="92" spans="1:27" ht="25.5">
+      <c r="A92" s="22" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>49</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>269</v>
+        <v>237</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>270</v>
+        <v>244</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="9"/>
@@ -4846,10 +4895,18 @@
       <c r="AA92" s="5"/>
     </row>
     <row r="93" spans="1:27" ht="12.75">
-      <c r="A93" s="22"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="22"/>
+      <c r="A93" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="B93" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>247</v>
+      </c>
       <c r="E93" s="5"/>
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
@@ -4874,11 +4931,19 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" spans="1:27" ht="12.75">
-      <c r="A94" s="22"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="22"/>
+    <row r="94" spans="1:27" ht="25.5">
+      <c r="A94" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="D94" s="22" t="s">
+        <v>251</v>
+      </c>
       <c r="E94" s="5"/>
       <c r="F94" s="9"/>
       <c r="G94" s="9"/>
@@ -4904,10 +4969,18 @@
       <c r="AA94" s="5"/>
     </row>
     <row r="95" spans="1:27" ht="12.75">
-      <c r="A95" s="22"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="22"/>
+      <c r="A95" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>252</v>
+      </c>
+      <c r="D95" s="22" t="s">
+        <v>253</v>
+      </c>
       <c r="E95" s="5"/>
       <c r="F95" s="9"/>
       <c r="G95" s="9"/>
@@ -4933,10 +5006,18 @@
       <c r="AA95" s="5"/>
     </row>
     <row r="96" spans="1:27" ht="12.75">
-      <c r="A96" s="22"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="22"/>
+      <c r="A96" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>254</v>
+      </c>
+      <c r="D96" s="22" t="s">
+        <v>255</v>
+      </c>
       <c r="E96" s="5"/>
       <c r="F96" s="9"/>
       <c r="G96" s="9"/>
@@ -5022,9 +5103,12 @@
     <row r="99" spans="1:27" ht="12.75">
       <c r="A99" s="22"/>
       <c r="B99" s="21"/>
-      <c r="C99" s="20"/>
-      <c r="D99" s="14"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
       <c r="E99" s="5"/>
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="5"/>
       <c r="J99" s="5"/>
       <c r="K99" s="5"/>
@@ -5048,9 +5132,12 @@
     <row r="100" spans="1:27" ht="12.75">
       <c r="A100" s="22"/>
       <c r="B100" s="21"/>
-      <c r="C100" s="20"/>
-      <c r="D100" s="14"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
       <c r="E100" s="5"/>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="5"/>
       <c r="J100" s="5"/>
       <c r="K100" s="5"/>
@@ -5074,9 +5161,12 @@
     <row r="101" spans="1:27" ht="12.75">
       <c r="A101" s="22"/>
       <c r="B101" s="21"/>
-      <c r="C101" s="20"/>
-      <c r="D101" s="14"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="22"/>
       <c r="E101" s="5"/>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="5"/>
@@ -5100,9 +5190,12 @@
     <row r="102" spans="1:27" ht="12.75">
       <c r="A102" s="22"/>
       <c r="B102" s="21"/>
-      <c r="C102" s="20"/>
-      <c r="D102" s="14"/>
+      <c r="C102" s="21"/>
+      <c r="D102" s="22"/>
       <c r="E102" s="5"/>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
       <c r="I102" s="5"/>
       <c r="J102" s="5"/>
       <c r="K102" s="5"/>
@@ -5205,7 +5298,7 @@
       <c r="A106" s="22"/>
       <c r="B106" s="21"/>
       <c r="C106" s="20"/>
-      <c r="D106" s="6"/>
+      <c r="D106" s="14"/>
       <c r="E106" s="5"/>
       <c r="I106" s="5"/>
       <c r="J106" s="5"/>
@@ -5231,7 +5324,7 @@
       <c r="A107" s="22"/>
       <c r="B107" s="21"/>
       <c r="C107" s="20"/>
-      <c r="D107" s="6"/>
+      <c r="D107" s="14"/>
       <c r="E107" s="5"/>
       <c r="I107" s="5"/>
       <c r="J107" s="5"/>
@@ -5256,8 +5349,8 @@
     <row r="108" spans="1:27" ht="12.75">
       <c r="A108" s="22"/>
       <c r="B108" s="21"/>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
+      <c r="C108" s="20"/>
+      <c r="D108" s="14"/>
       <c r="E108" s="5"/>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -5283,7 +5376,7 @@
       <c r="A109" s="22"/>
       <c r="B109" s="21"/>
       <c r="C109" s="20"/>
-      <c r="D109" s="6"/>
+      <c r="D109" s="14"/>
       <c r="E109" s="5"/>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -5308,7 +5401,7 @@
     <row r="110" spans="1:27" ht="12.75">
       <c r="A110" s="22"/>
       <c r="B110" s="21"/>
-      <c r="C110" s="6"/>
+      <c r="C110" s="20"/>
       <c r="D110" s="6"/>
       <c r="E110" s="5"/>
       <c r="I110" s="5"/>
@@ -5360,7 +5453,7 @@
     <row r="112" spans="1:27" ht="12.75">
       <c r="A112" s="22"/>
       <c r="B112" s="21"/>
-      <c r="C112" s="20"/>
+      <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="5"/>
       <c r="I112" s="5"/>
@@ -5412,7 +5505,7 @@
     <row r="114" spans="1:27" ht="12.75">
       <c r="A114" s="22"/>
       <c r="B114" s="21"/>
-      <c r="C114" s="20"/>
+      <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="5"/>
       <c r="I114" s="5"/>
@@ -5542,7 +5635,7 @@
     <row r="119" spans="1:27" ht="12.75">
       <c r="A119" s="22"/>
       <c r="B119" s="21"/>
-      <c r="C119" s="6"/>
+      <c r="C119" s="20"/>
       <c r="D119" s="6"/>
       <c r="E119" s="5"/>
       <c r="I119" s="5"/>
@@ -5594,7 +5687,7 @@
     <row r="121" spans="1:27" ht="12.75">
       <c r="A121" s="22"/>
       <c r="B121" s="21"/>
-      <c r="C121" s="6"/>
+      <c r="C121" s="20"/>
       <c r="D121" s="6"/>
       <c r="E121" s="5"/>
       <c r="I121" s="5"/>
@@ -5646,7 +5739,7 @@
     <row r="123" spans="1:27" ht="12.75">
       <c r="A123" s="22"/>
       <c r="B123" s="21"/>
-      <c r="C123" s="20"/>
+      <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="5"/>
       <c r="I123" s="5"/>
@@ -5696,8 +5789,8 @@
       <c r="AA124" s="5"/>
     </row>
     <row r="125" spans="1:27" ht="12.75">
-      <c r="A125" s="9"/>
-      <c r="B125" s="9"/>
+      <c r="A125" s="22"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5"/>
@@ -5722,9 +5815,9 @@
       <c r="AA125" s="5"/>
     </row>
     <row r="126" spans="1:27" ht="12.75">
-      <c r="A126" s="9"/>
-      <c r="B126" s="9"/>
-      <c r="C126" s="6"/>
+      <c r="A126" s="22"/>
+      <c r="B126" s="21"/>
+      <c r="C126" s="20"/>
       <c r="D126" s="6"/>
       <c r="E126" s="5"/>
       <c r="I126" s="5"/>
@@ -5748,9 +5841,9 @@
       <c r="AA126" s="5"/>
     </row>
     <row r="127" spans="1:27" ht="12.75">
-      <c r="A127" s="9"/>
-      <c r="B127" s="9"/>
-      <c r="C127" s="6"/>
+      <c r="A127" s="22"/>
+      <c r="B127" s="21"/>
+      <c r="C127" s="20"/>
       <c r="D127" s="6"/>
       <c r="E127" s="5"/>
       <c r="I127" s="5"/>
@@ -5774,9 +5867,9 @@
       <c r="AA127" s="5"/>
     </row>
     <row r="128" spans="1:27" ht="12.75">
-      <c r="A128" s="9"/>
-      <c r="B128" s="9"/>
-      <c r="C128" s="6"/>
+      <c r="A128" s="22"/>
+      <c r="B128" s="21"/>
+      <c r="C128" s="20"/>
       <c r="D128" s="6"/>
       <c r="E128" s="5"/>
       <c r="I128" s="5"/>
@@ -5933,7 +6026,7 @@
       <c r="A134" s="9"/>
       <c r="B134" s="9"/>
       <c r="C134" s="6"/>
-      <c r="D134" s="3"/>
+      <c r="D134" s="6"/>
       <c r="E134" s="5"/>
       <c r="I134" s="5"/>
       <c r="J134" s="5"/>
@@ -6037,7 +6130,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
+      <c r="D138" s="3"/>
       <c r="E138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -6117,9 +6210,6 @@
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="5"/>
-      <c r="F141" s="5"/>
-      <c r="G141" s="5"/>
-      <c r="H141" s="5"/>
       <c r="I141" s="5"/>
       <c r="J141" s="5"/>
       <c r="K141" s="5"/>
@@ -6146,9 +6236,6 @@
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
       <c r="I142" s="5"/>
       <c r="J142" s="5"/>
       <c r="K142" s="5"/>
@@ -6175,9 +6262,6 @@
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="5"/>
-      <c r="F143" s="5"/>
-      <c r="G143" s="5"/>
-      <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="5"/>
@@ -6204,9 +6288,6 @@
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="5"/>
-      <c r="F144" s="5"/>
-      <c r="G144" s="5"/>
-      <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="5"/>
@@ -6317,7 +6398,7 @@
     <row r="148" spans="1:27" ht="12.75">
       <c r="A148" s="9"/>
       <c r="B148" s="9"/>
-      <c r="C148" s="3"/>
+      <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
@@ -6346,7 +6427,7 @@
     <row r="149" spans="1:27" ht="12.75">
       <c r="A149" s="9"/>
       <c r="B149" s="9"/>
-      <c r="C149" s="3"/>
+      <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="5"/>
       <c r="F149" s="5"/>
@@ -6375,7 +6456,7 @@
     <row r="150" spans="1:27" ht="12.75">
       <c r="A150" s="9"/>
       <c r="B150" s="9"/>
-      <c r="C150" s="3"/>
+      <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="5"/>
       <c r="F150" s="5"/>
@@ -6404,7 +6485,7 @@
     <row r="151" spans="1:27" ht="12.75">
       <c r="A151" s="9"/>
       <c r="B151" s="9"/>
-      <c r="C151" s="3"/>
+      <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
@@ -6723,7 +6804,7 @@
     <row r="162" spans="1:27" ht="12.75">
       <c r="A162" s="9"/>
       <c r="B162" s="9"/>
-      <c r="C162" s="6"/>
+      <c r="C162" s="3"/>
       <c r="D162" s="6"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
@@ -6810,7 +6891,7 @@
     <row r="165" spans="1:27" ht="12.75">
       <c r="A165" s="9"/>
       <c r="B165" s="9"/>
-      <c r="C165" s="6"/>
+      <c r="C165" s="3"/>
       <c r="D165" s="6"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
@@ -6868,7 +6949,7 @@
     <row r="167" spans="1:27" ht="12.75">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
-      <c r="C167" s="6"/>
+      <c r="C167" s="3"/>
       <c r="D167" s="6"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -6897,7 +6978,7 @@
     <row r="168" spans="1:27" ht="12.75">
       <c r="A168" s="9"/>
       <c r="B168" s="9"/>
-      <c r="C168" s="6"/>
+      <c r="C168" s="3"/>
       <c r="D168" s="6"/>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -7796,7 +7877,7 @@
     <row r="199" spans="1:27" ht="12.75">
       <c r="A199" s="9"/>
       <c r="B199" s="9"/>
-      <c r="C199" s="3"/>
+      <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
@@ -7825,7 +7906,7 @@
     <row r="200" spans="1:27" ht="12.75">
       <c r="A200" s="9"/>
       <c r="B200" s="9"/>
-      <c r="C200" s="3"/>
+      <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
@@ -7854,7 +7935,7 @@
     <row r="201" spans="1:27" ht="12.75">
       <c r="A201" s="9"/>
       <c r="B201" s="9"/>
-      <c r="C201" s="3"/>
+      <c r="C201" s="6"/>
       <c r="D201" s="6"/>
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
@@ -7912,7 +7993,7 @@
     <row r="203" spans="1:27" ht="12.75">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
-      <c r="C203" s="6"/>
+      <c r="C203" s="3"/>
       <c r="D203" s="6"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -7941,7 +8022,7 @@
     <row r="204" spans="1:27" ht="12.75">
       <c r="A204" s="9"/>
       <c r="B204" s="9"/>
-      <c r="C204" s="6"/>
+      <c r="C204" s="3"/>
       <c r="D204" s="6"/>
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
@@ -7970,7 +8051,7 @@
     <row r="205" spans="1:27" ht="12.75">
       <c r="A205" s="9"/>
       <c r="B205" s="9"/>
-      <c r="C205" s="6"/>
+      <c r="C205" s="3"/>
       <c r="D205" s="6"/>
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
@@ -8145,7 +8226,7 @@
       <c r="A211" s="9"/>
       <c r="B211" s="9"/>
       <c r="C211" s="6"/>
-      <c r="D211" s="3"/>
+      <c r="D211" s="6"/>
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
       <c r="G211" s="5"/>
@@ -8173,8 +8254,8 @@
     <row r="212" spans="1:27" ht="12.75">
       <c r="A212" s="9"/>
       <c r="B212" s="9"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="13"/>
+      <c r="C212" s="6"/>
+      <c r="D212" s="6"/>
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
       <c r="G212" s="5"/>
@@ -8200,10 +8281,10 @@
       <c r="AA212" s="5"/>
     </row>
     <row r="213" spans="1:27" ht="12.75">
-      <c r="A213" s="10"/>
-      <c r="B213" s="10"/>
-      <c r="C213" s="9"/>
-      <c r="D213" s="14"/>
+      <c r="A213" s="9"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="6"/>
+      <c r="D213" s="6"/>
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
       <c r="G213" s="5"/>
@@ -8229,10 +8310,10 @@
       <c r="AA213" s="5"/>
     </row>
     <row r="214" spans="1:27" ht="12.75">
-      <c r="A214" s="10"/>
-      <c r="B214" s="10"/>
+      <c r="A214" s="9"/>
+      <c r="B214" s="9"/>
       <c r="C214" s="6"/>
-      <c r="D214" s="13"/>
+      <c r="D214" s="6"/>
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
       <c r="G214" s="5"/>
@@ -8258,10 +8339,10 @@
       <c r="AA214" s="5"/>
     </row>
     <row r="215" spans="1:27" ht="12.75">
-      <c r="A215" s="10"/>
-      <c r="B215" s="10"/>
+      <c r="A215" s="9"/>
+      <c r="B215" s="9"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="15"/>
+      <c r="D215" s="3"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -8289,8 +8370,8 @@
     <row r="216" spans="1:27" ht="12.75">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
-      <c r="C216" s="6"/>
-      <c r="D216" s="11"/>
+      <c r="C216" s="3"/>
+      <c r="D216" s="13"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -8318,7 +8399,7 @@
     <row r="217" spans="1:27" ht="12.75">
       <c r="A217" s="10"/>
       <c r="B217" s="10"/>
-      <c r="C217" s="6"/>
+      <c r="C217" s="9"/>
       <c r="D217" s="14"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
@@ -8406,7 +8487,7 @@
       <c r="A220" s="9"/>
       <c r="B220" s="9"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="15"/>
+      <c r="D220" s="11"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -8435,7 +8516,7 @@
       <c r="A221" s="10"/>
       <c r="B221" s="10"/>
       <c r="C221" s="6"/>
-      <c r="D221" s="13"/>
+      <c r="D221" s="14"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
@@ -8464,7 +8545,7 @@
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="6"/>
-      <c r="D222" s="15"/>
+      <c r="D222" s="13"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
@@ -8490,10 +8571,10 @@
       <c r="AA222" s="5"/>
     </row>
     <row r="223" spans="1:27" ht="12.75">
-      <c r="A223" s="9"/>
-      <c r="B223" s="9"/>
+      <c r="A223" s="10"/>
+      <c r="B223" s="10"/>
       <c r="C223" s="6"/>
-      <c r="D223" s="13"/>
+      <c r="D223" s="15"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
@@ -8519,10 +8600,10 @@
       <c r="AA223" s="5"/>
     </row>
     <row r="224" spans="1:27" ht="12.75">
-      <c r="A224" s="10"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="3"/>
-      <c r="D224" s="13"/>
+      <c r="A224" s="9"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="15"/>
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
       <c r="G224" s="5"/>
@@ -8579,7 +8660,7 @@
     <row r="226" spans="1:27" ht="12.75">
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
-      <c r="C226" s="3"/>
+      <c r="C226" s="6"/>
       <c r="D226" s="15"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
@@ -8635,10 +8716,10 @@
       <c r="AA227" s="5"/>
     </row>
     <row r="228" spans="1:27" ht="12.75">
-      <c r="A228" s="9"/>
-      <c r="B228" s="9"/>
-      <c r="C228" s="9"/>
-      <c r="D228" s="9"/>
+      <c r="A228" s="10"/>
+      <c r="B228" s="10"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="13"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="5"/>
@@ -8664,10 +8745,10 @@
       <c r="AA228" s="5"/>
     </row>
     <row r="229" spans="1:27" ht="12.75">
-      <c r="A229" s="9"/>
-      <c r="B229" s="9"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
+      <c r="A229" s="10"/>
+      <c r="B229" s="10"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="13"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="5"/>
@@ -8693,10 +8774,10 @@
       <c r="AA229" s="5"/>
     </row>
     <row r="230" spans="1:27" ht="12.75">
-      <c r="A230" s="9"/>
-      <c r="B230" s="9"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
+      <c r="A230" s="10"/>
+      <c r="B230" s="10"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="15"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
@@ -8724,8 +8805,8 @@
     <row r="231" spans="1:27" ht="12.75">
       <c r="A231" s="9"/>
       <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="13"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
@@ -8898,7 +8979,7 @@
     <row r="237" spans="1:27" ht="12.75">
       <c r="A237" s="9"/>
       <c r="B237" s="9"/>
-      <c r="C237" s="12"/>
+      <c r="C237" s="9"/>
       <c r="D237" s="9"/>
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
@@ -9014,7 +9095,7 @@
     <row r="241" spans="1:27" ht="12.75">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
-      <c r="C241" s="10"/>
+      <c r="C241" s="12"/>
       <c r="D241" s="9"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -9043,7 +9124,7 @@
     <row r="242" spans="1:27" ht="12.75">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
-      <c r="C242" s="12"/>
+      <c r="C242" s="9"/>
       <c r="D242" s="9"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -9130,7 +9211,7 @@
     <row r="245" spans="1:27" ht="12.75">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
-      <c r="C245" s="9"/>
+      <c r="C245" s="10"/>
       <c r="D245" s="9"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -9159,7 +9240,7 @@
     <row r="246" spans="1:27" ht="12.75">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
-      <c r="C246" s="9"/>
+      <c r="C246" s="12"/>
       <c r="D246" s="9"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -9533,40 +9614,40 @@
       <c r="Z258" s="5"/>
       <c r="AA258" s="5"/>
     </row>
-    <row r="259" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A259" s="16"/>
-      <c r="B259" s="17"/>
-      <c r="C259" s="17"/>
-      <c r="D259" s="17"/>
-      <c r="E259" s="17"/>
-      <c r="F259" s="18"/>
-      <c r="G259" s="19"/>
-      <c r="H259" s="19"/>
-      <c r="I259" s="19"/>
-      <c r="J259" s="19"/>
-      <c r="K259" s="19"/>
-      <c r="L259" s="19"/>
-      <c r="M259" s="19"/>
-      <c r="N259" s="19"/>
-      <c r="O259" s="19"/>
-      <c r="P259" s="19"/>
-      <c r="Q259" s="19"/>
-      <c r="R259" s="19"/>
-      <c r="S259" s="19"/>
-      <c r="T259" s="19"/>
-      <c r="U259" s="19"/>
-      <c r="V259" s="19"/>
-      <c r="W259" s="19"/>
-      <c r="X259" s="19"/>
-      <c r="Y259" s="19"/>
-      <c r="Z259" s="19"/>
+    <row r="259" spans="1:27" ht="12.75">
+      <c r="A259" s="9"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="5"/>
+      <c r="F259" s="5"/>
+      <c r="G259" s="5"/>
+      <c r="H259" s="5"/>
+      <c r="I259" s="5"/>
+      <c r="J259" s="5"/>
+      <c r="K259" s="5"/>
+      <c r="L259" s="5"/>
+      <c r="M259" s="5"/>
+      <c r="N259" s="5"/>
+      <c r="O259" s="5"/>
+      <c r="P259" s="5"/>
+      <c r="Q259" s="5"/>
+      <c r="R259" s="5"/>
+      <c r="S259" s="5"/>
+      <c r="T259" s="5"/>
+      <c r="U259" s="5"/>
+      <c r="V259" s="5"/>
+      <c r="W259" s="5"/>
+      <c r="X259" s="5"/>
+      <c r="Y259" s="5"/>
+      <c r="Z259" s="5"/>
       <c r="AA259" s="5"/>
     </row>
     <row r="260" spans="1:27" ht="12.75">
-      <c r="A260" s="5"/>
-      <c r="B260" s="5"/>
-      <c r="C260" s="5"/>
-      <c r="D260" s="5"/>
+      <c r="A260" s="9"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
       <c r="E260" s="5"/>
       <c r="F260" s="5"/>
       <c r="G260" s="5"/>
@@ -9592,10 +9673,10 @@
       <c r="AA260" s="5"/>
     </row>
     <row r="261" spans="1:27" ht="12.75">
-      <c r="A261" s="5"/>
-      <c r="B261" s="5"/>
-      <c r="C261" s="5"/>
-      <c r="D261" s="5"/>
+      <c r="A261" s="9"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
       <c r="E261" s="5"/>
       <c r="F261" s="5"/>
       <c r="G261" s="5"/>
@@ -9621,10 +9702,10 @@
       <c r="AA261" s="5"/>
     </row>
     <row r="262" spans="1:27" ht="12.75">
-      <c r="A262" s="5"/>
-      <c r="B262" s="5"/>
-      <c r="C262" s="5"/>
-      <c r="D262" s="5"/>
+      <c r="A262" s="9"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
       <c r="E262" s="5"/>
       <c r="F262" s="5"/>
       <c r="G262" s="5"/>
@@ -9649,33 +9730,33 @@
       <c r="Z262" s="5"/>
       <c r="AA262" s="5"/>
     </row>
-    <row r="263" spans="1:27" ht="12.75">
-      <c r="A263" s="5"/>
-      <c r="B263" s="5"/>
-      <c r="C263" s="5"/>
-      <c r="D263" s="5"/>
-      <c r="E263" s="5"/>
-      <c r="F263" s="5"/>
-      <c r="G263" s="5"/>
-      <c r="H263" s="5"/>
-      <c r="I263" s="5"/>
-      <c r="J263" s="5"/>
-      <c r="K263" s="5"/>
-      <c r="L263" s="5"/>
-      <c r="M263" s="5"/>
-      <c r="N263" s="5"/>
-      <c r="O263" s="5"/>
-      <c r="P263" s="5"/>
-      <c r="Q263" s="5"/>
-      <c r="R263" s="5"/>
-      <c r="S263" s="5"/>
-      <c r="T263" s="5"/>
-      <c r="U263" s="5"/>
-      <c r="V263" s="5"/>
-      <c r="W263" s="5"/>
-      <c r="X263" s="5"/>
-      <c r="Y263" s="5"/>
-      <c r="Z263" s="5"/>
+    <row r="263" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A263" s="16"/>
+      <c r="B263" s="17"/>
+      <c r="C263" s="17"/>
+      <c r="D263" s="17"/>
+      <c r="E263" s="17"/>
+      <c r="F263" s="18"/>
+      <c r="G263" s="19"/>
+      <c r="H263" s="19"/>
+      <c r="I263" s="19"/>
+      <c r="J263" s="19"/>
+      <c r="K263" s="19"/>
+      <c r="L263" s="19"/>
+      <c r="M263" s="19"/>
+      <c r="N263" s="19"/>
+      <c r="O263" s="19"/>
+      <c r="P263" s="19"/>
+      <c r="Q263" s="19"/>
+      <c r="R263" s="19"/>
+      <c r="S263" s="19"/>
+      <c r="T263" s="19"/>
+      <c r="U263" s="19"/>
+      <c r="V263" s="19"/>
+      <c r="W263" s="19"/>
+      <c r="X263" s="19"/>
+      <c r="Y263" s="19"/>
+      <c r="Z263" s="19"/>
       <c r="AA263" s="5"/>
     </row>
     <row r="264" spans="1:27" ht="12.75">
@@ -32791,6 +32872,122 @@
       <c r="Z1060" s="5"/>
       <c r="AA1060" s="5"/>
     </row>
+    <row r="1061" spans="1:27" ht="12.75">
+      <c r="A1061" s="5"/>
+      <c r="B1061" s="5"/>
+      <c r="C1061" s="5"/>
+      <c r="D1061" s="5"/>
+      <c r="E1061" s="5"/>
+      <c r="F1061" s="5"/>
+      <c r="G1061" s="5"/>
+      <c r="H1061" s="5"/>
+      <c r="I1061" s="5"/>
+      <c r="J1061" s="5"/>
+      <c r="K1061" s="5"/>
+      <c r="L1061" s="5"/>
+      <c r="M1061" s="5"/>
+      <c r="N1061" s="5"/>
+      <c r="O1061" s="5"/>
+      <c r="P1061" s="5"/>
+      <c r="Q1061" s="5"/>
+      <c r="R1061" s="5"/>
+      <c r="S1061" s="5"/>
+      <c r="T1061" s="5"/>
+      <c r="U1061" s="5"/>
+      <c r="V1061" s="5"/>
+      <c r="W1061" s="5"/>
+      <c r="X1061" s="5"/>
+      <c r="Y1061" s="5"/>
+      <c r="Z1061" s="5"/>
+      <c r="AA1061" s="5"/>
+    </row>
+    <row r="1062" spans="1:27" ht="12.75">
+      <c r="A1062" s="5"/>
+      <c r="B1062" s="5"/>
+      <c r="C1062" s="5"/>
+      <c r="D1062" s="5"/>
+      <c r="E1062" s="5"/>
+      <c r="F1062" s="5"/>
+      <c r="G1062" s="5"/>
+      <c r="H1062" s="5"/>
+      <c r="I1062" s="5"/>
+      <c r="J1062" s="5"/>
+      <c r="K1062" s="5"/>
+      <c r="L1062" s="5"/>
+      <c r="M1062" s="5"/>
+      <c r="N1062" s="5"/>
+      <c r="O1062" s="5"/>
+      <c r="P1062" s="5"/>
+      <c r="Q1062" s="5"/>
+      <c r="R1062" s="5"/>
+      <c r="S1062" s="5"/>
+      <c r="T1062" s="5"/>
+      <c r="U1062" s="5"/>
+      <c r="V1062" s="5"/>
+      <c r="W1062" s="5"/>
+      <c r="X1062" s="5"/>
+      <c r="Y1062" s="5"/>
+      <c r="Z1062" s="5"/>
+      <c r="AA1062" s="5"/>
+    </row>
+    <row r="1063" spans="1:27" ht="12.75">
+      <c r="A1063" s="5"/>
+      <c r="B1063" s="5"/>
+      <c r="C1063" s="5"/>
+      <c r="D1063" s="5"/>
+      <c r="E1063" s="5"/>
+      <c r="F1063" s="5"/>
+      <c r="G1063" s="5"/>
+      <c r="H1063" s="5"/>
+      <c r="I1063" s="5"/>
+      <c r="J1063" s="5"/>
+      <c r="K1063" s="5"/>
+      <c r="L1063" s="5"/>
+      <c r="M1063" s="5"/>
+      <c r="N1063" s="5"/>
+      <c r="O1063" s="5"/>
+      <c r="P1063" s="5"/>
+      <c r="Q1063" s="5"/>
+      <c r="R1063" s="5"/>
+      <c r="S1063" s="5"/>
+      <c r="T1063" s="5"/>
+      <c r="U1063" s="5"/>
+      <c r="V1063" s="5"/>
+      <c r="W1063" s="5"/>
+      <c r="X1063" s="5"/>
+      <c r="Y1063" s="5"/>
+      <c r="Z1063" s="5"/>
+      <c r="AA1063" s="5"/>
+    </row>
+    <row r="1064" spans="1:27" ht="12.75">
+      <c r="A1064" s="5"/>
+      <c r="B1064" s="5"/>
+      <c r="C1064" s="5"/>
+      <c r="D1064" s="5"/>
+      <c r="E1064" s="5"/>
+      <c r="F1064" s="5"/>
+      <c r="G1064" s="5"/>
+      <c r="H1064" s="5"/>
+      <c r="I1064" s="5"/>
+      <c r="J1064" s="5"/>
+      <c r="K1064" s="5"/>
+      <c r="L1064" s="5"/>
+      <c r="M1064" s="5"/>
+      <c r="N1064" s="5"/>
+      <c r="O1064" s="5"/>
+      <c r="P1064" s="5"/>
+      <c r="Q1064" s="5"/>
+      <c r="R1064" s="5"/>
+      <c r="S1064" s="5"/>
+      <c r="T1064" s="5"/>
+      <c r="U1064" s="5"/>
+      <c r="V1064" s="5"/>
+      <c r="W1064" s="5"/>
+      <c r="X1064" s="5"/>
+      <c r="Y1064" s="5"/>
+      <c r="Z1064" s="5"/>
+      <c r="AA1064" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/viteConfig/assets/language.xlsx
+++ b/viteConfig/assets/language.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="293">
   <si>
     <t>字段</t>
   </si>
@@ -964,10 +964,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>login.pureLogin</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>login.pureLoginSuccess</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1220,6 +1216,22 @@
   </si>
   <si>
     <t>menus.RelatedDocuments</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Verification Code</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.pureLogin</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>login.VerificationCode</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1630,11 +1642,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA1064"/>
+  <dimension ref="A1:AA1065"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -3187,7 +3199,7 @@
         <v>86</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>139</v>
@@ -3570,16 +3582,16 @@
     </row>
     <row r="57" spans="1:27" ht="12.75">
       <c r="A57" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B57" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C57" s="21" t="s">
+        <v>262</v>
+      </c>
+      <c r="D57" s="22" t="s">
         <v>263</v>
-      </c>
-      <c r="D57" s="22" t="s">
-        <v>264</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -4014,16 +4026,16 @@
     </row>
     <row r="69" spans="1:27" ht="12.75">
       <c r="A69" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B69" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="9"/>
@@ -4051,16 +4063,16 @@
     </row>
     <row r="70" spans="1:27" ht="12.75">
       <c r="A70" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C70" s="21" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="9"/>
@@ -4088,16 +4100,16 @@
     </row>
     <row r="71" spans="1:27" ht="12.75">
       <c r="A71" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C71" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="D71" s="22" t="s">
         <v>272</v>
-      </c>
-      <c r="D71" s="22" t="s">
-        <v>273</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="9"/>
@@ -4125,16 +4137,16 @@
     </row>
     <row r="72" spans="1:27" ht="12.75">
       <c r="A72" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B72" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="9"/>
@@ -4162,16 +4174,16 @@
     </row>
     <row r="73" spans="1:27" ht="12.75">
       <c r="A73" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B73" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C73" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="22" t="s">
         <v>275</v>
-      </c>
-      <c r="D73" s="22" t="s">
-        <v>276</v>
       </c>
       <c r="E73" s="9"/>
       <c r="F73" s="9"/>
@@ -4199,16 +4211,16 @@
     </row>
     <row r="74" spans="1:27" ht="12.75">
       <c r="A74" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B74" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C74" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="22" t="s">
         <v>277</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>278</v>
       </c>
       <c r="E74" s="9"/>
       <c r="F74" s="9"/>
@@ -4236,16 +4248,16 @@
     </row>
     <row r="75" spans="1:27" ht="12.75">
       <c r="A75" s="14" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C75" s="21" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E75" s="9"/>
       <c r="I75" s="9"/>
@@ -4270,16 +4282,16 @@
     </row>
     <row r="76" spans="1:27" ht="12.75">
       <c r="A76" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B76" s="20" t="s">
         <v>188</v>
       </c>
       <c r="C76" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="D76" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="D76" s="14" t="s">
-        <v>288</v>
       </c>
       <c r="E76" s="9"/>
       <c r="I76" s="9"/>
@@ -4304,16 +4316,16 @@
     </row>
     <row r="77" spans="1:27" ht="12.75">
       <c r="A77" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B77" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="21" t="s">
         <v>266</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="D77" s="22" t="s">
         <v>267</v>
-      </c>
-      <c r="D77" s="22" t="s">
-        <v>268</v>
       </c>
       <c r="E77" s="9"/>
       <c r="F77" s="9"/>
@@ -4606,10 +4618,10 @@
         <v>49</v>
       </c>
       <c r="C85" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D85" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="9"/>
@@ -4643,10 +4655,10 @@
         <v>49</v>
       </c>
       <c r="C86" s="21" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D86" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="9"/>
@@ -4674,53 +4686,53 @@
     </row>
     <row r="87" spans="1:27" ht="12.75">
       <c r="A87" s="22" t="s">
-        <v>225</v>
+        <v>292</v>
       </c>
       <c r="B87" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C87" s="21" t="s">
-        <v>49</v>
+        <v>289</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E87" s="5"/>
+        <v>290</v>
+      </c>
+      <c r="E87" s="9"/>
       <c r="F87" s="9"/>
       <c r="G87" s="9"/>
       <c r="H87" s="9"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-      <c r="U87" s="5"/>
-      <c r="V87" s="5"/>
-      <c r="W87" s="5"/>
-      <c r="X87" s="5"/>
-      <c r="Y87" s="5"/>
-      <c r="Z87" s="5"/>
-      <c r="AA87" s="5"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
+      <c r="S87" s="9"/>
+      <c r="T87" s="9"/>
+      <c r="U87" s="9"/>
+      <c r="V87" s="9"/>
+      <c r="W87" s="9"/>
+      <c r="X87" s="9"/>
+      <c r="Y87" s="9"/>
+      <c r="Z87" s="9"/>
+      <c r="AA87" s="9"/>
     </row>
     <row r="88" spans="1:27" ht="12.75">
       <c r="A88" s="22" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="B88" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C88" s="21" t="s">
-        <v>233</v>
+        <v>49</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="9"/>
@@ -4748,16 +4760,16 @@
     </row>
     <row r="89" spans="1:27" ht="12.75">
       <c r="A89" s="22" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B89" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C89" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="9"/>
@@ -4785,16 +4797,16 @@
     </row>
     <row r="90" spans="1:27" ht="12.75">
       <c r="A90" s="22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B90" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C90" s="21" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="9"/>
@@ -4822,16 +4834,16 @@
     </row>
     <row r="91" spans="1:27" ht="12.75">
       <c r="A91" s="22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B91" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C91" s="21" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="9"/>
@@ -4857,18 +4869,18 @@
       <c r="Z91" s="5"/>
       <c r="AA91" s="5"/>
     </row>
-    <row r="92" spans="1:27" ht="25.5">
+    <row r="92" spans="1:27" ht="12.75">
       <c r="A92" s="22" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B92" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C92" s="21" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D92" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="9"/>
@@ -4894,18 +4906,18 @@
       <c r="Z92" s="5"/>
       <c r="AA92" s="5"/>
     </row>
-    <row r="93" spans="1:27" ht="12.75">
-      <c r="A93" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C93" s="20" t="s">
-        <v>246</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>247</v>
+    <row r="93" spans="1:27" ht="25.5">
+      <c r="A93" s="22" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="D93" s="22" t="s">
+        <v>243</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="9"/>
@@ -4931,18 +4943,18 @@
       <c r="Z93" s="5"/>
       <c r="AA93" s="5"/>
     </row>
-    <row r="94" spans="1:27" ht="25.5">
+    <row r="94" spans="1:27" ht="12.75">
       <c r="A94" s="14" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="C94" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="D94" s="14" t="s">
+        <v>246</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="9"/>
@@ -4968,18 +4980,18 @@
       <c r="Z94" s="5"/>
       <c r="AA94" s="5"/>
     </row>
-    <row r="95" spans="1:27" ht="12.75">
+    <row r="95" spans="1:27" ht="25.5">
       <c r="A95" s="14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="9"/>
@@ -5007,16 +5019,16 @@
     </row>
     <row r="96" spans="1:27" ht="12.75">
       <c r="A96" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C96" s="21" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="9"/>
@@ -5043,10 +5055,18 @@
       <c r="AA96" s="5"/>
     </row>
     <row r="97" spans="1:27" ht="12.75">
-      <c r="A97" s="22"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="22"/>
+      <c r="A97" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="D97" s="22" t="s">
+        <v>254</v>
+      </c>
       <c r="E97" s="5"/>
       <c r="F97" s="9"/>
       <c r="G97" s="9"/>
@@ -5219,9 +5239,12 @@
     <row r="103" spans="1:27" ht="12.75">
       <c r="A103" s="22"/>
       <c r="B103" s="21"/>
-      <c r="C103" s="20"/>
-      <c r="D103" s="14"/>
+      <c r="C103" s="21"/>
+      <c r="D103" s="22"/>
       <c r="E103" s="5"/>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="9"/>
       <c r="I103" s="5"/>
       <c r="J103" s="5"/>
       <c r="K103" s="5"/>
@@ -5402,7 +5425,7 @@
       <c r="A110" s="22"/>
       <c r="B110" s="21"/>
       <c r="C110" s="20"/>
-      <c r="D110" s="6"/>
+      <c r="D110" s="14"/>
       <c r="E110" s="5"/>
       <c r="I110" s="5"/>
       <c r="J110" s="5"/>
@@ -5453,7 +5476,7 @@
     <row r="112" spans="1:27" ht="12.75">
       <c r="A112" s="22"/>
       <c r="B112" s="21"/>
-      <c r="C112" s="6"/>
+      <c r="C112" s="20"/>
       <c r="D112" s="6"/>
       <c r="E112" s="5"/>
       <c r="I112" s="5"/>
@@ -5479,7 +5502,7 @@
     <row r="113" spans="1:27" ht="12.75">
       <c r="A113" s="22"/>
       <c r="B113" s="21"/>
-      <c r="C113" s="20"/>
+      <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="5"/>
       <c r="I113" s="5"/>
@@ -5505,7 +5528,7 @@
     <row r="114" spans="1:27" ht="12.75">
       <c r="A114" s="22"/>
       <c r="B114" s="21"/>
-      <c r="C114" s="6"/>
+      <c r="C114" s="20"/>
       <c r="D114" s="6"/>
       <c r="E114" s="5"/>
       <c r="I114" s="5"/>
@@ -5531,7 +5554,7 @@
     <row r="115" spans="1:27" ht="12.75">
       <c r="A115" s="22"/>
       <c r="B115" s="21"/>
-      <c r="C115" s="20"/>
+      <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="5"/>
       <c r="I115" s="5"/>
@@ -5739,7 +5762,7 @@
     <row r="123" spans="1:27" ht="12.75">
       <c r="A123" s="22"/>
       <c r="B123" s="21"/>
-      <c r="C123" s="6"/>
+      <c r="C123" s="20"/>
       <c r="D123" s="6"/>
       <c r="E123" s="5"/>
       <c r="I123" s="5"/>
@@ -5765,7 +5788,7 @@
     <row r="124" spans="1:27" ht="12.75">
       <c r="A124" s="22"/>
       <c r="B124" s="21"/>
-      <c r="C124" s="20"/>
+      <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="5"/>
       <c r="I124" s="5"/>
@@ -5791,7 +5814,7 @@
     <row r="125" spans="1:27" ht="12.75">
       <c r="A125" s="22"/>
       <c r="B125" s="21"/>
-      <c r="C125" s="6"/>
+      <c r="C125" s="20"/>
       <c r="D125" s="6"/>
       <c r="E125" s="5"/>
       <c r="I125" s="5"/>
@@ -5817,7 +5840,7 @@
     <row r="126" spans="1:27" ht="12.75">
       <c r="A126" s="22"/>
       <c r="B126" s="21"/>
-      <c r="C126" s="20"/>
+      <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="5"/>
       <c r="I126" s="5"/>
@@ -5893,9 +5916,9 @@
       <c r="AA128" s="5"/>
     </row>
     <row r="129" spans="1:27" ht="12.75">
-      <c r="A129" s="9"/>
-      <c r="B129" s="9"/>
-      <c r="C129" s="6"/>
+      <c r="A129" s="22"/>
+      <c r="B129" s="21"/>
+      <c r="C129" s="20"/>
       <c r="D129" s="6"/>
       <c r="E129" s="5"/>
       <c r="I129" s="5"/>
@@ -6130,7 +6153,7 @@
       <c r="A138" s="9"/>
       <c r="B138" s="9"/>
       <c r="C138" s="6"/>
-      <c r="D138" s="3"/>
+      <c r="D138" s="6"/>
       <c r="E138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -6156,7 +6179,7 @@
       <c r="A139" s="9"/>
       <c r="B139" s="9"/>
       <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
+      <c r="D139" s="3"/>
       <c r="E139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -6314,9 +6337,6 @@
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="5"/>
-      <c r="F145" s="5"/>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="5"/>
@@ -6514,7 +6534,7 @@
     <row r="152" spans="1:27" ht="12.75">
       <c r="A152" s="9"/>
       <c r="B152" s="9"/>
-      <c r="C152" s="3"/>
+      <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
@@ -6920,7 +6940,7 @@
     <row r="166" spans="1:27" ht="12.75">
       <c r="A166" s="9"/>
       <c r="B166" s="9"/>
-      <c r="C166" s="6"/>
+      <c r="C166" s="3"/>
       <c r="D166" s="6"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
@@ -6949,7 +6969,7 @@
     <row r="167" spans="1:27" ht="12.75">
       <c r="A167" s="9"/>
       <c r="B167" s="9"/>
-      <c r="C167" s="3"/>
+      <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
@@ -7007,7 +7027,7 @@
     <row r="169" spans="1:27" ht="12.75">
       <c r="A169" s="9"/>
       <c r="B169" s="9"/>
-      <c r="C169" s="6"/>
+      <c r="C169" s="3"/>
       <c r="D169" s="6"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5"/>
@@ -7993,7 +8013,7 @@
     <row r="203" spans="1:27" ht="12.75">
       <c r="A203" s="9"/>
       <c r="B203" s="9"/>
-      <c r="C203" s="3"/>
+      <c r="C203" s="6"/>
       <c r="D203" s="6"/>
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
@@ -8080,7 +8100,7 @@
     <row r="206" spans="1:27" ht="12.75">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
-      <c r="C206" s="6"/>
+      <c r="C206" s="3"/>
       <c r="D206" s="6"/>
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
@@ -8342,7 +8362,7 @@
       <c r="A215" s="9"/>
       <c r="B215" s="9"/>
       <c r="C215" s="6"/>
-      <c r="D215" s="3"/>
+      <c r="D215" s="6"/>
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
       <c r="G215" s="5"/>
@@ -8370,8 +8390,8 @@
     <row r="216" spans="1:27" ht="12.75">
       <c r="A216" s="9"/>
       <c r="B216" s="9"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="13"/>
+      <c r="C216" s="6"/>
+      <c r="D216" s="3"/>
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
       <c r="G216" s="5"/>
@@ -8397,10 +8417,10 @@
       <c r="AA216" s="5"/>
     </row>
     <row r="217" spans="1:27" ht="12.75">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="14"/>
+      <c r="A217" s="9"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="3"/>
+      <c r="D217" s="13"/>
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
       <c r="G217" s="5"/>
@@ -8428,8 +8448,8 @@
     <row r="218" spans="1:27" ht="12.75">
       <c r="A218" s="10"/>
       <c r="B218" s="10"/>
-      <c r="C218" s="6"/>
-      <c r="D218" s="13"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="14"/>
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
       <c r="G218" s="5"/>
@@ -8458,7 +8478,7 @@
       <c r="A219" s="10"/>
       <c r="B219" s="10"/>
       <c r="C219" s="6"/>
-      <c r="D219" s="15"/>
+      <c r="D219" s="13"/>
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
       <c r="G219" s="5"/>
@@ -8484,10 +8504,10 @@
       <c r="AA219" s="5"/>
     </row>
     <row r="220" spans="1:27" ht="12.75">
-      <c r="A220" s="9"/>
-      <c r="B220" s="9"/>
+      <c r="A220" s="10"/>
+      <c r="B220" s="10"/>
       <c r="C220" s="6"/>
-      <c r="D220" s="11"/>
+      <c r="D220" s="15"/>
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
       <c r="G220" s="5"/>
@@ -8513,10 +8533,10 @@
       <c r="AA220" s="5"/>
     </row>
     <row r="221" spans="1:27" ht="12.75">
-      <c r="A221" s="10"/>
-      <c r="B221" s="10"/>
+      <c r="A221" s="9"/>
+      <c r="B221" s="9"/>
       <c r="C221" s="6"/>
-      <c r="D221" s="14"/>
+      <c r="D221" s="11"/>
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
       <c r="G221" s="5"/>
@@ -8545,7 +8565,7 @@
       <c r="A222" s="10"/>
       <c r="B222" s="10"/>
       <c r="C222" s="6"/>
-      <c r="D222" s="13"/>
+      <c r="D222" s="14"/>
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
       <c r="G222" s="5"/>
@@ -8574,7 +8594,7 @@
       <c r="A223" s="10"/>
       <c r="B223" s="10"/>
       <c r="C223" s="6"/>
-      <c r="D223" s="15"/>
+      <c r="D223" s="13"/>
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
       <c r="G223" s="5"/>
@@ -8600,8 +8620,8 @@
       <c r="AA223" s="5"/>
     </row>
     <row r="224" spans="1:27" ht="12.75">
-      <c r="A224" s="9"/>
-      <c r="B224" s="9"/>
+      <c r="A224" s="10"/>
+      <c r="B224" s="10"/>
       <c r="C224" s="6"/>
       <c r="D224" s="15"/>
       <c r="E224" s="5"/>
@@ -8629,10 +8649,10 @@
       <c r="AA224" s="5"/>
     </row>
     <row r="225" spans="1:27" ht="12.75">
-      <c r="A225" s="10"/>
-      <c r="B225" s="10"/>
+      <c r="A225" s="9"/>
+      <c r="B225" s="9"/>
       <c r="C225" s="6"/>
-      <c r="D225" s="13"/>
+      <c r="D225" s="15"/>
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="5"/>
@@ -8661,7 +8681,7 @@
       <c r="A226" s="10"/>
       <c r="B226" s="10"/>
       <c r="C226" s="6"/>
-      <c r="D226" s="15"/>
+      <c r="D226" s="13"/>
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="5"/>
@@ -8687,10 +8707,10 @@
       <c r="AA226" s="5"/>
     </row>
     <row r="227" spans="1:27" ht="12.75">
-      <c r="A227" s="9"/>
-      <c r="B227" s="9"/>
+      <c r="A227" s="10"/>
+      <c r="B227" s="10"/>
       <c r="C227" s="6"/>
-      <c r="D227" s="13"/>
+      <c r="D227" s="15"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
@@ -8716,9 +8736,9 @@
       <c r="AA227" s="5"/>
     </row>
     <row r="228" spans="1:27" ht="12.75">
-      <c r="A228" s="10"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="3"/>
+      <c r="A228" s="9"/>
+      <c r="B228" s="9"/>
+      <c r="C228" s="6"/>
       <c r="D228" s="13"/>
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
@@ -8747,7 +8767,7 @@
     <row r="229" spans="1:27" ht="12.75">
       <c r="A229" s="10"/>
       <c r="B229" s="10"/>
-      <c r="C229" s="6"/>
+      <c r="C229" s="3"/>
       <c r="D229" s="13"/>
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
@@ -8776,8 +8796,8 @@
     <row r="230" spans="1:27" ht="12.75">
       <c r="A230" s="10"/>
       <c r="B230" s="10"/>
-      <c r="C230" s="3"/>
-      <c r="D230" s="15"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="13"/>
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="5"/>
@@ -8803,10 +8823,10 @@
       <c r="AA230" s="5"/>
     </row>
     <row r="231" spans="1:27" ht="12.75">
-      <c r="A231" s="9"/>
-      <c r="B231" s="9"/>
-      <c r="C231" s="6"/>
-      <c r="D231" s="13"/>
+      <c r="A231" s="10"/>
+      <c r="B231" s="10"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="15"/>
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="5"/>
@@ -8834,8 +8854,8 @@
     <row r="232" spans="1:27" ht="12.75">
       <c r="A232" s="9"/>
       <c r="B232" s="9"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="13"/>
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="G232" s="5"/>
@@ -9095,7 +9115,7 @@
     <row r="241" spans="1:27" ht="12.75">
       <c r="A241" s="9"/>
       <c r="B241" s="9"/>
-      <c r="C241" s="12"/>
+      <c r="C241" s="9"/>
       <c r="D241" s="9"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
@@ -9124,7 +9144,7 @@
     <row r="242" spans="1:27" ht="12.75">
       <c r="A242" s="9"/>
       <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
+      <c r="C242" s="12"/>
       <c r="D242" s="9"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
@@ -9211,7 +9231,7 @@
     <row r="245" spans="1:27" ht="12.75">
       <c r="A245" s="9"/>
       <c r="B245" s="9"/>
-      <c r="C245" s="10"/>
+      <c r="C245" s="9"/>
       <c r="D245" s="9"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
@@ -9240,7 +9260,7 @@
     <row r="246" spans="1:27" ht="12.75">
       <c r="A246" s="9"/>
       <c r="B246" s="9"/>
-      <c r="C246" s="12"/>
+      <c r="C246" s="10"/>
       <c r="D246" s="9"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
@@ -9269,7 +9289,7 @@
     <row r="247" spans="1:27" ht="12.75">
       <c r="A247" s="9"/>
       <c r="B247" s="9"/>
-      <c r="C247" s="9"/>
+      <c r="C247" s="12"/>
       <c r="D247" s="9"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
@@ -9730,62 +9750,62 @@
       <c r="Z262" s="5"/>
       <c r="AA262" s="5"/>
     </row>
-    <row r="263" spans="1:27" ht="15.75" customHeight="1">
-      <c r="A263" s="16"/>
-      <c r="B263" s="17"/>
-      <c r="C263" s="17"/>
-      <c r="D263" s="17"/>
-      <c r="E263" s="17"/>
-      <c r="F263" s="18"/>
-      <c r="G263" s="19"/>
-      <c r="H263" s="19"/>
-      <c r="I263" s="19"/>
-      <c r="J263" s="19"/>
-      <c r="K263" s="19"/>
-      <c r="L263" s="19"/>
-      <c r="M263" s="19"/>
-      <c r="N263" s="19"/>
-      <c r="O263" s="19"/>
-      <c r="P263" s="19"/>
-      <c r="Q263" s="19"/>
-      <c r="R263" s="19"/>
-      <c r="S263" s="19"/>
-      <c r="T263" s="19"/>
-      <c r="U263" s="19"/>
-      <c r="V263" s="19"/>
-      <c r="W263" s="19"/>
-      <c r="X263" s="19"/>
-      <c r="Y263" s="19"/>
-      <c r="Z263" s="19"/>
+    <row r="263" spans="1:27" ht="12.75">
+      <c r="A263" s="9"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="5"/>
+      <c r="F263" s="5"/>
+      <c r="G263" s="5"/>
+      <c r="H263" s="5"/>
+      <c r="I263" s="5"/>
+      <c r="J263" s="5"/>
+      <c r="K263" s="5"/>
+      <c r="L263" s="5"/>
+      <c r="M263" s="5"/>
+      <c r="N263" s="5"/>
+      <c r="O263" s="5"/>
+      <c r="P263" s="5"/>
+      <c r="Q263" s="5"/>
+      <c r="R263" s="5"/>
+      <c r="S263" s="5"/>
+      <c r="T263" s="5"/>
+      <c r="U263" s="5"/>
+      <c r="V263" s="5"/>
+      <c r="W263" s="5"/>
+      <c r="X263" s="5"/>
+      <c r="Y263" s="5"/>
+      <c r="Z263" s="5"/>
       <c r="AA263" s="5"/>
     </row>
-    <row r="264" spans="1:27" ht="12.75">
-      <c r="A264" s="5"/>
-      <c r="B264" s="5"/>
-      <c r="C264" s="5"/>
-      <c r="D264" s="5"/>
-      <c r="E264" s="5"/>
-      <c r="F264" s="5"/>
-      <c r="G264" s="5"/>
-      <c r="H264" s="5"/>
-      <c r="I264" s="5"/>
-      <c r="J264" s="5"/>
-      <c r="K264" s="5"/>
-      <c r="L264" s="5"/>
-      <c r="M264" s="5"/>
-      <c r="N264" s="5"/>
-      <c r="O264" s="5"/>
-      <c r="P264" s="5"/>
-      <c r="Q264" s="5"/>
-      <c r="R264" s="5"/>
-      <c r="S264" s="5"/>
-      <c r="T264" s="5"/>
-      <c r="U264" s="5"/>
-      <c r="V264" s="5"/>
-      <c r="W264" s="5"/>
-      <c r="X264" s="5"/>
-      <c r="Y264" s="5"/>
-      <c r="Z264" s="5"/>
+    <row r="264" spans="1:27" ht="15.75" customHeight="1">
+      <c r="A264" s="16"/>
+      <c r="B264" s="17"/>
+      <c r="C264" s="17"/>
+      <c r="D264" s="17"/>
+      <c r="E264" s="17"/>
+      <c r="F264" s="18"/>
+      <c r="G264" s="19"/>
+      <c r="H264" s="19"/>
+      <c r="I264" s="19"/>
+      <c r="J264" s="19"/>
+      <c r="K264" s="19"/>
+      <c r="L264" s="19"/>
+      <c r="M264" s="19"/>
+      <c r="N264" s="19"/>
+      <c r="O264" s="19"/>
+      <c r="P264" s="19"/>
+      <c r="Q264" s="19"/>
+      <c r="R264" s="19"/>
+      <c r="S264" s="19"/>
+      <c r="T264" s="19"/>
+      <c r="U264" s="19"/>
+      <c r="V264" s="19"/>
+      <c r="W264" s="19"/>
+      <c r="X264" s="19"/>
+      <c r="Y264" s="19"/>
+      <c r="Z264" s="19"/>
       <c r="AA264" s="5"/>
     </row>
     <row r="265" spans="1:27" ht="12.75">
@@ -32988,6 +33008,35 @@
       <c r="Z1064" s="5"/>
       <c r="AA1064" s="5"/>
     </row>
+    <row r="1065" spans="1:27" ht="12.75">
+      <c r="A1065" s="5"/>
+      <c r="B1065" s="5"/>
+      <c r="C1065" s="5"/>
+      <c r="D1065" s="5"/>
+      <c r="E1065" s="5"/>
+      <c r="F1065" s="5"/>
+      <c r="G1065" s="5"/>
+      <c r="H1065" s="5"/>
+      <c r="I1065" s="5"/>
+      <c r="J1065" s="5"/>
+      <c r="K1065" s="5"/>
+      <c r="L1065" s="5"/>
+      <c r="M1065" s="5"/>
+      <c r="N1065" s="5"/>
+      <c r="O1065" s="5"/>
+      <c r="P1065" s="5"/>
+      <c r="Q1065" s="5"/>
+      <c r="R1065" s="5"/>
+      <c r="S1065" s="5"/>
+      <c r="T1065" s="5"/>
+      <c r="U1065" s="5"/>
+      <c r="V1065" s="5"/>
+      <c r="W1065" s="5"/>
+      <c r="X1065" s="5"/>
+      <c r="Y1065" s="5"/>
+      <c r="Z1065" s="5"/>
+      <c r="AA1065" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
